--- a/documents/ロジック設計.xlsx
+++ b/documents/ロジック設計.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7230" yWindow="-45" windowWidth="21570" windowHeight="14640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ロジック" sheetId="1" r:id="rId1"/>
+    <sheet name="SpeedDTO" sheetId="2" r:id="rId2"/>
+    <sheet name="putMain" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="202">
   <si>
     <t>login</t>
   </si>
@@ -248,18 +250,6 @@
     <t>L-16</t>
   </si>
   <si>
-    <t>L-17</t>
-  </si>
-  <si>
-    <t>L-18</t>
-  </si>
-  <si>
-    <t>L-19</t>
-  </si>
-  <si>
-    <t>L-20</t>
-  </si>
-  <si>
     <t>O-2</t>
   </si>
   <si>
@@ -333,10 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>putMain</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>putサービスメイン処理</t>
     <rPh sb="10" eb="12">
       <t>ショリ</t>
@@ -348,38 +334,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>lockExclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>checkPut</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>put処理が実行中かどうかのチェック</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>put処理の排他ロックをする</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハイタ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -392,6 +351,995 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getMasterDto</t>
+  </si>
+  <si>
+    <t>ルームID</t>
+  </si>
+  <si>
+    <t>ルームID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setMasterDto</t>
+  </si>
+  <si>
+    <t>setMasterDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームID、SpeedDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームIDに紐づく、マスターDTOを取得</t>
+    <rPh sb="6" eb="7">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台札番号→プレイヤー１の左の台札が「１」、プレイヤー１の右の台札が「２」</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>フダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターDTO→サーバ側で保持しているSpeedDTOのこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー番号→最初にログインしたユーザが「１」、次にログインしたユーザが「２」</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターDTOを保存する。</t>
+    <rPh sb="8" eb="10">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー1名</t>
+  </si>
+  <si>
+    <t>プレイヤー2名</t>
+  </si>
+  <si>
+    <t>重ね札</t>
+  </si>
+  <si>
+    <t>プレイヤー１メッセージ</t>
+  </si>
+  <si>
+    <t>プレイヤー２メッセージ</t>
+  </si>
+  <si>
+    <t>台札１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台札２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初にログインしたユーザが「１」、次にログインしたユーザが「２」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー番号</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー1手札</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー2手札</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー１の残りの手札</t>
+    <rPh sb="7" eb="8">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テフダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー２の残りの手札</t>
+    <rPh sb="7" eb="8">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テフダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ（マスターDTO）
+で保持</t>
+    <rPh sb="14" eb="16">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバから
+送信</t>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントから
+送信</t>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△（ログイン時のみ）</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重ね札位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント
+で保持</t>
+    <rPh sb="8" eb="10">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理ステータス１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理ステータス２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台札１に紐づく処理ステータス。
+０：未処理、１：処理中、２：ゲーム終了</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ミショリ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ショリチュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台札２に紐づく処理ステータス。
+０：未処理、１：処理中、２：ゲーム終了</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ミショリ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ショリチュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台札番号。
+プレイヤー１の左の台札が「１」、プレイヤー１の右の台札が「２」</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー1場札</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー2場札</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４枚のカード</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー１の左の台札。１枚のカード</t>
+    <rPh sb="13" eb="14">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー１の右の台札。１枚のカード</t>
+    <rPh sb="13" eb="14">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー１がログイン画面で入力した名前</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー２がログイン画面で入力した名前</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台札に重ねたカード</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getResultDto</t>
+  </si>
+  <si>
+    <t>メッセージ1、メッセージ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザに返却するSpeedDTOを作成する。
+メッセージ１に渡された値をプレイヤー１メッセージに設定する。
+メッセージ２に渡された値をプレイヤー２メッセージに設定する。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>putMain</t>
+  </si>
+  <si>
+    <t>putMain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkExclusion</t>
+  </si>
+  <si>
+    <t>getMasterDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックエラーの場合</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getResultDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>排他チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ハイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpeedDTOを返却して処理終了</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>排他ロック</t>
+    <rPh sb="0" eb="2">
+      <t>ハイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lockExclusion</t>
+  </si>
+  <si>
+    <t>3.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台札重ねられるかチェック</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台札にカードを置く</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true:ゲーム終了、false:ゲーム未終了</t>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateFieldCard</t>
+  </si>
+  <si>
+    <t>true:ゲーム続行、false:台札更新が必要</t>
+    <rPh sb="8" eb="10">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー双方が台札にカードを置ける状態かどうかのチェック</t>
+    <rPh sb="5" eb="7">
+      <t>ソウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>putLeadCard</t>
+  </si>
+  <si>
+    <t>checkPut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>putLeadCard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.1.2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場札更新</t>
+    <rPh sb="0" eb="1">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.1.2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.1.3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札が無くなった場合、trueを返却</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８．</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札が無くなった場合（ゲーム終了）</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lockExclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unLockExclusion</t>
+  </si>
+  <si>
+    <t>排他ロックを解除する
+→マスターDTOの台札番号に紐づく処理ステータスを未処理に更新する</t>
+    <rPh sb="0" eb="2">
+      <t>ハイタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ミショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>put処理の排他ロックをする
+→マスターDTOの台札番号に紐づく処理ステータスを処理中に更新する</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>put処理が実行中かどうかのチェック
+→マスターDTOの台札番号に紐づく処理ステータスが処理中かどうかをチェックする。</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateFieldCard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー双方が台札にカードを置ける状態かどうかのチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkGame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkGame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateLeadCard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateLeadCard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.1.2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>排他ロックを解除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unLockExclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.1.2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理結果返却</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.1.1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記9によりゲームが続行できない場合</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※上記９、１０をゲーム続行となるまで繰り返す</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー１の手札を台札１に置く、プレイヤー２の手札を台札２に置く</t>
+    <rPh sb="7" eb="9">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記10の処理をした、且つ、ゲーム続行不可能の場合、ゲーム終了のメッセージを送信する</t>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記10の処理をした、且つ、ゲーム続行可能の場合、双方に「台札の入れ替えをしました」のメッセージを送信する</t>
+  </si>
+  <si>
+    <t>true:更新正常
+false:更新異常（プレイヤー双方の手札が無くなった場合）</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場札の更新。プレイヤーの手札を場札に追加する</t>
+    <rPh sb="0" eb="1">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,7 +1420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -488,6 +1436,20 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,21 +1752,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F34"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="1" customWidth="1"/>
     <col min="8" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
@@ -824,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
@@ -838,21 +1798,21 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -895,19 +1855,30 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F12" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
@@ -999,50 +1970,50 @@
         <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>70</v>
+      <c r="F21" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
@@ -1050,125 +2021,898 @@
         <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F30" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C51" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C58" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
